--- a/BANDPASS.xlsx
+++ b/BANDPASS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF652A8E-8494-4F12-985C-ACEE8984BCC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EA48A4-8588-46BB-A40B-A740C675F033}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>BUTTERWORTH FILTER</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>G11</t>
+  </si>
+  <si>
+    <t>3.0 dB CHEBYSHEV  FILTER</t>
+  </si>
+  <si>
+    <t>0.5 dB CHEBYSHEV  FILTER</t>
   </si>
 </sst>
 </file>
@@ -145,6 +151,48 @@
     <tableColumn id="10" xr3:uid="{ABBCBD0C-0048-4581-8411-073F310AA0A0}" name="G9"/>
     <tableColumn id="11" xr3:uid="{E80D4D78-A3A2-4725-B665-006728C6F922}" name="G10"/>
     <tableColumn id="12" xr3:uid="{256CAC2A-3F6C-4EB8-AD70-EE7FC9AA3528}" name="G11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BE66E75A-B0AA-4013-89DA-2C1F789AAE83}" name="Table13" displayName="Table13" ref="A15:L25" totalsRowShown="0">
+  <autoFilter ref="A15:L25" xr:uid="{B45B1A1B-AA3A-4D12-9C4F-D523ED4878AD}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{40EB244B-01A5-4E36-BB1D-4A110A85C8B5}" name="N"/>
+    <tableColumn id="2" xr3:uid="{C850A72D-1F13-411A-B4A1-D1C61FCAD09D}" name="G1"/>
+    <tableColumn id="3" xr3:uid="{E0B73816-A2B6-43BE-B6B8-5689BFBD1668}" name="G2"/>
+    <tableColumn id="4" xr3:uid="{348352C8-D66B-4BFC-B823-FDADC8D51F96}" name="G3"/>
+    <tableColumn id="5" xr3:uid="{675505FF-1D40-43BA-9B48-78EA09C9A37B}" name="G4"/>
+    <tableColumn id="6" xr3:uid="{0B0E2808-81E8-4255-B6C1-8E71445BD175}" name="G5"/>
+    <tableColumn id="7" xr3:uid="{1FBF85C4-604F-493C-BB7E-4678BCC5F5D0}" name="G6"/>
+    <tableColumn id="8" xr3:uid="{0471849A-5348-4495-A862-877CCB2BBF3B}" name="G7"/>
+    <tableColumn id="9" xr3:uid="{201E0856-7BFA-4609-AB5D-07CC7663DE2A}" name="G8"/>
+    <tableColumn id="10" xr3:uid="{2021B6C6-6800-40D6-A0CB-9BDFC1A933A9}" name="G9"/>
+    <tableColumn id="11" xr3:uid="{DB99EE2A-AF89-47F7-9A83-01B85D2CFBCB}" name="G10"/>
+    <tableColumn id="12" xr3:uid="{8A25B989-A550-46D2-BB61-C555E9CF231B}" name="G11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{927853A3-9632-418A-AE71-3DC17B639E5B}" name="Table135" displayName="Table135" ref="A28:L38" totalsRowShown="0">
+  <autoFilter ref="A28:L38" xr:uid="{80E0E71D-A664-4B71-AEB6-D0F5628D9FE8}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{663B08CD-B95A-44E4-A230-9CF29C65EBF7}" name="N"/>
+    <tableColumn id="2" xr3:uid="{D2D2EF37-BEBE-4153-86D4-44FFB9874C7B}" name="G1"/>
+    <tableColumn id="3" xr3:uid="{1B477B1B-4DB8-4566-BC3F-3CDBA6DB85FC}" name="G2"/>
+    <tableColumn id="4" xr3:uid="{A8078802-FD16-4CEE-83A3-8348542C7C3F}" name="G3"/>
+    <tableColumn id="5" xr3:uid="{9B1D2853-7BC8-49F3-BFAE-64AC6DD17D5A}" name="G4"/>
+    <tableColumn id="6" xr3:uid="{6A84B6F1-6F81-4E68-A3C3-C5D54460F5C9}" name="G5"/>
+    <tableColumn id="7" xr3:uid="{F5708869-34DA-4868-BB5A-C4D6B3833445}" name="G6"/>
+    <tableColumn id="8" xr3:uid="{A501649E-377B-49BB-81E2-9EAB082D99C3}" name="G7"/>
+    <tableColumn id="9" xr3:uid="{2A4D6FF2-1B5E-4245-BEC3-D4A3C26DD47B}" name="G8"/>
+    <tableColumn id="10" xr3:uid="{69A77A32-F3EC-4E16-B564-BF5E9EF98915}" name="G9"/>
+    <tableColumn id="11" xr3:uid="{359180B9-C5D3-42CB-BFD3-51D2F436B8B3}" name="G10"/>
+    <tableColumn id="12" xr3:uid="{BF0451FB-AAD0-4F84-B624-BE17E9DCDFB7}" name="G11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -413,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,13 +772,615 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1.9953000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3.1013000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="D17">
+        <v>5.8094999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>3.3487</v>
+      </c>
+      <c r="C18">
+        <v>0.7117</v>
+      </c>
+      <c r="D18">
+        <v>3.3487</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3.4388999999999998</v>
+      </c>
+      <c r="C19">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="D19">
+        <v>4.3471000000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="F19">
+        <v>5.8094999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3.4817</v>
+      </c>
+      <c r="C20">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="D20">
+        <v>4.5381</v>
+      </c>
+      <c r="E20">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="F20">
+        <v>3.4817</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3.5045000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="D21">
+        <v>4.6060999999999996</v>
+      </c>
+      <c r="E21">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="F21">
+        <v>4.4641000000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="H21">
+        <v>5.8094999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>3.5182000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="D22">
+        <v>4.6386000000000003</v>
+      </c>
+      <c r="E22">
+        <v>0.80389999999999995</v>
+      </c>
+      <c r="F22">
+        <v>4.6386000000000003</v>
+      </c>
+      <c r="G22">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="H22">
+        <v>3.5182000000000002</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>3.5276999999999998</v>
+      </c>
+      <c r="C23">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="D23">
+        <v>4.6574999999999998</v>
+      </c>
+      <c r="E23">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="F23">
+        <v>4.6989999999999998</v>
+      </c>
+      <c r="G23">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="H23">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="I23">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="J23">
+        <v>5.8094999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D24">
+        <v>4.6692</v>
+      </c>
+      <c r="E24">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="F24">
+        <v>4.7271999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="H24">
+        <v>4.6692</v>
+      </c>
+      <c r="I24">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="J24">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>3.5384000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="D25">
+        <v>4.6768000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="F25">
+        <v>4.7423999999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="H25">
+        <v>4.726</v>
+      </c>
+      <c r="I25">
+        <v>0.80510000000000004</v>
+      </c>
+      <c r="J25">
+        <v>4.5141999999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="L25">
+        <v>5.8094999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.6986</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1.4029</v>
+      </c>
+      <c r="C30">
+        <v>0.70709999999999995</v>
+      </c>
+      <c r="D30">
+        <v>1.9810000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>1.5963000000000001</v>
+      </c>
+      <c r="C31">
+        <v>1.0967</v>
+      </c>
+      <c r="D31">
+        <v>1.5963000000000001</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1.6702999999999999</v>
+      </c>
+      <c r="C32">
+        <v>1.1926000000000001</v>
+      </c>
+      <c r="D32">
+        <v>2.3660999999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="F32">
+        <v>1.9841</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1.7058</v>
+      </c>
+      <c r="C33">
+        <v>1.2296</v>
+      </c>
+      <c r="D33">
+        <v>2.5407999999999999</v>
+      </c>
+      <c r="E33">
+        <v>1.2296</v>
+      </c>
+      <c r="F33">
+        <v>1.7058</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>1.7254</v>
+      </c>
+      <c r="C34">
+        <v>1.2479</v>
+      </c>
+      <c r="D34">
+        <v>2.6053999999999999</v>
+      </c>
+      <c r="E34">
+        <v>1.3137000000000001</v>
+      </c>
+      <c r="F34">
+        <v>2.4758</v>
+      </c>
+      <c r="G34">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="H34">
+        <v>1.9841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>1.7372000000000001</v>
+      </c>
+      <c r="C35">
+        <v>1.2583</v>
+      </c>
+      <c r="D35">
+        <v>2.6381000000000001</v>
+      </c>
+      <c r="E35">
+        <v>1.3444</v>
+      </c>
+      <c r="F35">
+        <v>2.6480999999999999</v>
+      </c>
+      <c r="G35">
+        <v>1.2583</v>
+      </c>
+      <c r="H35">
+        <v>1.7372000000000001</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>1.7451000000000001</v>
+      </c>
+      <c r="C36">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="D36">
+        <v>2.6564000000000001</v>
+      </c>
+      <c r="E36">
+        <v>1.359</v>
+      </c>
+      <c r="F36">
+        <v>2.6964000000000001</v>
+      </c>
+      <c r="G36">
+        <v>1.3389</v>
+      </c>
+      <c r="H36">
+        <v>2.5093000000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="J36">
+        <v>1.9841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>1.7504</v>
+      </c>
+      <c r="C37">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="D37">
+        <v>2.6678000000000002</v>
+      </c>
+      <c r="E37">
+        <v>1.3673</v>
+      </c>
+      <c r="F37">
+        <v>2.7239</v>
+      </c>
+      <c r="G37">
+        <v>1.3678999999999999</v>
+      </c>
+      <c r="H37">
+        <v>2.6678000000000002</v>
+      </c>
+      <c r="I37">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="J37">
+        <v>1.7504</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1.7543</v>
+      </c>
+      <c r="C38">
+        <v>1.2721</v>
+      </c>
+      <c r="D38">
+        <v>2.6753999999999998</v>
+      </c>
+      <c r="E38">
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="F38">
+        <v>2.7391999999999999</v>
+      </c>
+      <c r="G38">
+        <v>1.3806</v>
+      </c>
+      <c r="H38">
+        <v>2.7231000000000001</v>
+      </c>
+      <c r="I38">
+        <v>1.3485</v>
+      </c>
+      <c r="J38">
+        <v>2.5238999999999998</v>
+      </c>
+      <c r="K38">
+        <v>0.88419999999999999</v>
+      </c>
+      <c r="L38">
+        <v>1.9841</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A27:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>